--- a/03 Decision Maker.xlsx
+++ b/03 Decision Maker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mipc\Documents\Frontend projects\01 FreeCodeCamp\02 Online Courses from YouTube FreeCodeCamp Channel\Excel from the Beginning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D025BD35-2CDE-45A3-A83A-E330C02222B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C4DA0D-913F-4179-8ABD-50878646862A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ADA1C249-F571-4F25-9BE6-E7DD45BCCB1F}"/>
   </bookViews>
@@ -143,13 +143,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -498,7 +499,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +512,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
